--- a/Content/tools/Excel2Lua/sheet_imguied/language.xlsx
+++ b/Content/tools/Excel2Lua/sheet_imguied/language.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\editor_img\bin\tools\Excel2Lua\sheet_imguied\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA3A991-A669-4101-B416-40CC939DBEE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lang" sheetId="1" r:id="rId1"/>
@@ -14,12 +20,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -52,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="544">
   <si>
     <t>配置规则</t>
   </si>
@@ -1464,6 +1470,15 @@
     <t>DEF_COLLISION_FRAME</t>
   </si>
   <si>
+    <t>GFrameType.PHYSICAL_FORCE_FRAME</t>
+  </si>
+  <si>
+    <t>物理力施加</t>
+  </si>
+  <si>
+    <t>PHYSICAL_FORCE_FRAME</t>
+  </si>
+  <si>
     <t>GFrameType.FORCE_FRAME</t>
   </si>
   <si>
@@ -1609,19 +1624,82 @@
   </si>
   <si>
     <t>condition_frame_len</t>
+  </si>
+  <si>
+    <t>GForceOrientation</t>
+  </si>
+  <si>
+    <t>力方向</t>
+  </si>
+  <si>
+    <t>GForceOrientation.Positive_Direction</t>
+  </si>
+  <si>
+    <t>正方向</t>
+  </si>
+  <si>
+    <t>Positive_Direction</t>
+  </si>
+  <si>
+    <t>GForceOrientation.Negative_Direction</t>
+  </si>
+  <si>
+    <t>反方向</t>
+  </si>
+  <si>
+    <t>Negative_Direction</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>值</t>
+  </si>
+  <si>
+    <t>GPhysicalForceType</t>
+  </si>
+  <si>
+    <t>力类型</t>
+  </si>
+  <si>
+    <t>GPhysicalForceType.FORCE</t>
+  </si>
+  <si>
+    <t>FORCE</t>
+  </si>
+  <si>
+    <t>GPhysicalForceType.IMPULSE</t>
+  </si>
+  <si>
+    <t>IMPULSE</t>
+  </si>
+  <si>
+    <t>GPhysicalForceType.MOVEMENT</t>
+  </si>
+  <si>
+    <t>匀速移动</t>
+  </si>
+  <si>
+    <t>MOVEMENT</t>
+  </si>
+  <si>
+    <t>CAN_NOT_CHANGE_PARENT_IN_LAYER</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cannot change element parent node in 'layer'</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能在'layer'中改变元素父节点</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1644,143 +1722,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1811,182 +1784,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -2083,259 +1882,53 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="13" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="13" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="13" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2349,62 +1942,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="输入" xfId="1" builtinId="20"/>
+    <cellStyle name="注释" xfId="2" builtinId="10"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <i val="0"/>
       </font>
       <fill>
@@ -2424,7 +1974,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -2432,6 +1982,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2718,71 +2271,71 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H208"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="I188" sqref="I188"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="J72" sqref="J72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="3" max="3" width="23.8727272727273" customWidth="1"/>
+    <col min="3" max="3" width="23.875" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
     <col min="6" max="6" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="C7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" ht="14.75" spans="1:1">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" ht="14.75" spans="1:1">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -2796,7 +2349,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
         <v>11</v>
       </c>
@@ -2813,7 +2366,7 @@
       <c r="F11" s="11"/>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="13" t="s">
         <v>15</v>
       </c>
@@ -2825,7 +2378,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="13" t="s">
         <v>18</v>
       </c>
@@ -2837,7 +2390,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -2849,7 +2402,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -2861,7 +2414,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -2873,7 +2426,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -2885,7 +2438,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -2896,7 +2449,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -2908,7 +2461,7 @@
       </c>
       <c r="F19" s="16"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -2919,7 +2472,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -2930,7 +2483,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -2941,7 +2494,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -2952,7 +2505,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -2963,7 +2516,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>50</v>
       </c>
@@ -2974,7 +2527,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -2985,7 +2538,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>56</v>
       </c>
@@ -2996,7 +2549,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>58</v>
       </c>
@@ -3007,7 +2560,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>61</v>
       </c>
@@ -3018,7 +2571,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>64</v>
       </c>
@@ -3029,7 +2582,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -3040,7 +2593,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>69</v>
       </c>
@@ -3051,7 +2604,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>72</v>
       </c>
@@ -3062,7 +2615,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>74</v>
       </c>
@@ -3073,7 +2626,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>77</v>
       </c>
@@ -3084,7 +2637,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>79</v>
       </c>
@@ -3095,7 +2648,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>82</v>
       </c>
@@ -3106,7 +2659,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>85</v>
       </c>
@@ -3117,7 +2670,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>88</v>
       </c>
@@ -3128,7 +2681,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>89</v>
       </c>
@@ -3139,7 +2692,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>92</v>
       </c>
@@ -3150,7 +2703,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>95</v>
       </c>
@@ -3161,7 +2714,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>97</v>
       </c>
@@ -3172,7 +2725,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>100</v>
       </c>
@@ -3183,7 +2736,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>102</v>
       </c>
@@ -3194,7 +2747,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>105</v>
       </c>
@@ -3205,7 +2758,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>108</v>
       </c>
@@ -3216,7 +2769,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>109</v>
       </c>
@@ -3227,7 +2780,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>112</v>
       </c>
@@ -3238,7 +2791,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>114</v>
       </c>
@@ -3249,7 +2802,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>117</v>
       </c>
@@ -3260,7 +2813,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>119</v>
       </c>
@@ -3271,7 +2824,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>121</v>
       </c>
@@ -3282,7 +2835,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>124</v>
       </c>
@@ -3293,7 +2846,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>127</v>
       </c>
@@ -3304,7 +2857,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>130</v>
       </c>
@@ -3315,7 +2868,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>132</v>
       </c>
@@ -3326,7 +2879,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>135</v>
       </c>
@@ -3337,7 +2890,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>138</v>
       </c>
@@ -3348,7 +2901,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>141</v>
       </c>
@@ -3359,7 +2912,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>144</v>
       </c>
@@ -3370,7 +2923,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>147</v>
       </c>
@@ -3381,7 +2934,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>150</v>
       </c>
@@ -3392,7 +2945,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>153</v>
       </c>
@@ -3403,7 +2956,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>155</v>
       </c>
@@ -3414,7 +2967,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>157</v>
       </c>
@@ -3425,7 +2978,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>160</v>
       </c>
@@ -3436,7 +2989,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>162</v>
       </c>
@@ -3447,7 +3000,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>164</v>
       </c>
@@ -3458,7 +3011,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>166</v>
       </c>
@@ -3469,7 +3022,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>168</v>
       </c>
@@ -3480,7 +3033,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>171</v>
       </c>
@@ -3491,7 +3044,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>172</v>
       </c>
@@ -3502,7 +3055,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>174</v>
       </c>
@@ -3513,7 +3066,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>176</v>
       </c>
@@ -3524,7 +3077,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>179</v>
       </c>
@@ -3535,7 +3088,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>182</v>
       </c>
@@ -3546,7 +3099,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>129</v>
       </c>
@@ -3557,7 +3110,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>185</v>
       </c>
@@ -3568,7 +3121,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>187</v>
       </c>
@@ -3579,7 +3132,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
         <v>190</v>
       </c>
@@ -3590,7 +3143,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
         <v>192</v>
       </c>
@@ -3601,7 +3154,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>195</v>
       </c>
@@ -3612,1253 +3165,1253 @@
         <v>197</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
-      <c r="A84" t="s">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A84" s="19" t="s">
+        <v>541</v>
+      </c>
+      <c r="C84" s="21" t="s">
+        <v>543</v>
+      </c>
+      <c r="D84" s="20" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A85" t="s">
         <v>198</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C85" t="s">
         <v>199</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="D85" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
-      <c r="A85" t="s">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A86" t="s">
         <v>201</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C86" t="s">
         <v>202</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="D86" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
-      <c r="A86" t="s">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A87" t="s">
         <v>204</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C87" t="s">
         <v>205</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="D87" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
-      <c r="A87" t="s">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A88" t="s">
         <v>207</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C88" t="s">
         <v>208</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="D88" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
-      <c r="A88" t="s">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A89" t="s">
         <v>210</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C89" t="s">
         <v>211</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="D89" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
-      <c r="A89" t="s">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A90" t="s">
         <v>213</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C90" t="s">
         <v>214</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="D90" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
-      <c r="A90" t="s">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A91" t="s">
         <v>215</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C91" t="s">
         <v>216</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="D91" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
-      <c r="A91" t="s">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A92" t="s">
         <v>218</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C92" t="s">
         <v>219</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="D92" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
-      <c r="A92" t="s">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A93" t="s">
         <v>221</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C93" t="s">
         <v>222</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="D93" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
-      <c r="A93" t="s">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A94" t="s">
         <v>224</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C94" t="s">
         <v>225</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="D94" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
-      <c r="A94" t="s">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A95" t="s">
         <v>227</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C95" t="s">
         <v>228</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="D95" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
-      <c r="A95" t="s">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A96" t="s">
         <v>230</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C96" t="s">
         <v>231</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="D96" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
-      <c r="A96" t="s">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A97" t="s">
         <v>233</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C97" t="s">
         <v>234</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="D97" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="97" ht="13" customHeight="1" spans="1:4">
-      <c r="A97" t="s">
+    <row r="98" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" t="s">
         <v>235</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C98" t="s">
         <v>236</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="D98" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
-      <c r="A98" t="s">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A99" t="s">
         <v>238</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C99" t="s">
         <v>239</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="D99" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
-      <c r="A99" t="s">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A100" t="s">
         <v>240</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C100" t="s">
         <v>241</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="D100" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
-      <c r="A100" t="s">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A101" t="s">
         <v>243</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C101" t="s">
         <v>244</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="D101" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
-      <c r="A101" t="s">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A102" t="s">
         <v>246</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C102" t="s">
         <v>247</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="D102" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
-      <c r="A102" t="s">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A103" t="s">
         <v>248</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C103" t="s">
         <v>249</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="D103" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
-      <c r="A103" t="s">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A104" t="s">
         <v>250</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C104" t="s">
         <v>251</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="D104" s="1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
-      <c r="A104" t="s">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A105" t="s">
         <v>253</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C105" t="s">
         <v>254</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="D105" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
-      <c r="A105" t="s">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A106" t="s">
         <v>256</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C106" t="s">
         <v>257</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="D106" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="H105" s="17"/>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="A106" t="s">
+      <c r="H106" s="17"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A107" t="s">
         <v>259</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C107" t="s">
         <v>260</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="D107" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
-      <c r="A107" t="s">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A108" t="s">
         <v>261</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C108" t="s">
         <v>262</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="D108" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
-      <c r="A108" t="s">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A109" t="s">
         <v>263</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C109" t="s">
         <v>264</v>
       </c>
-      <c r="D108" s="1" t="s">
+      <c r="D109" s="1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
-      <c r="A109" t="s">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A110" t="s">
         <v>266</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C110" t="s">
         <v>267</v>
       </c>
-      <c r="D109" s="1" t="s">
+      <c r="D110" s="1" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
-      <c r="A110" t="s">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A111" t="s">
         <v>269</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C111" t="s">
         <v>270</v>
       </c>
-      <c r="D110" s="1" t="s">
+      <c r="D111" s="1" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
-      <c r="A111" t="s">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A112" t="s">
         <v>272</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C112" t="s">
         <v>273</v>
       </c>
-      <c r="D111" s="1" t="s">
+      <c r="D112" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
-      <c r="A112" t="s">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A113" t="s">
         <v>275</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C113" t="s">
         <v>276</v>
       </c>
-      <c r="D112" s="1" t="s">
+      <c r="D113" s="1" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
-      <c r="A113" t="s">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A114" t="s">
         <v>44</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C114" t="s">
         <v>278</v>
       </c>
-      <c r="D113" s="1" t="s">
+      <c r="D114" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
-      <c r="A114" t="s">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A115" t="s">
         <v>279</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C115" t="s">
         <v>280</v>
       </c>
-      <c r="D114" s="1" t="s">
+      <c r="D115" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
-      <c r="A115" t="s">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A116" t="s">
         <v>281</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C116" t="s">
         <v>282</v>
       </c>
-      <c r="D115" s="1" t="s">
+      <c r="D116" s="1" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
-      <c r="A116" t="s">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A117" t="s">
         <v>283</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C117" t="s">
         <v>284</v>
       </c>
-      <c r="D116" s="1" t="s">
+      <c r="D117" s="1" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
-      <c r="A117" t="s">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A118" t="s">
         <v>286</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C118" t="s">
         <v>287</v>
       </c>
-      <c r="D117" s="1" t="s">
+      <c r="D118" s="1" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
-      <c r="A118" t="s">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A119" t="s">
         <v>289</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C119" t="s">
         <v>290</v>
       </c>
-      <c r="D118" s="1" t="s">
+      <c r="D119" s="1" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
-      <c r="A119" t="s">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A120" t="s">
         <v>292</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C120" t="s">
         <v>293</v>
       </c>
-      <c r="D119" s="1" t="s">
+      <c r="D120" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
-      <c r="A120" t="s">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A121" t="s">
         <v>295</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C121" t="s">
         <v>276</v>
       </c>
-      <c r="D120" s="1" t="s">
+      <c r="D121" s="1" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
-      <c r="A121" t="s">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A122" t="s">
         <v>297</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C122" t="s">
         <v>298</v>
       </c>
-      <c r="D121" s="1" t="s">
+      <c r="D122" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
-      <c r="A122" t="s">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A123" t="s">
         <v>300</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C123" t="s">
         <v>301</v>
       </c>
-      <c r="D122" s="1" t="s">
+      <c r="D123" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
-      <c r="A123" t="s">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A124" t="s">
         <v>302</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C124" t="s">
         <v>303</v>
       </c>
-      <c r="D123" s="1" t="s">
+      <c r="D124" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
-      <c r="A124" t="s">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A125" t="s">
         <v>304</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C125" t="s">
         <v>305</v>
       </c>
-      <c r="D124" s="1" t="s">
+      <c r="D125" s="1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
-      <c r="A125" t="s">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A126" t="s">
         <v>307</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C126" t="s">
         <v>308</v>
       </c>
-      <c r="D125" s="1" t="s">
+      <c r="D126" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
-      <c r="A126" t="s">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A127" t="s">
         <v>310</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C127" t="s">
         <v>311</v>
       </c>
-      <c r="D126" s="1" t="s">
+      <c r="D127" s="1" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
-      <c r="A127" t="s">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A128" t="s">
         <v>313</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C128" t="s">
         <v>314</v>
       </c>
-      <c r="D127" s="1" t="s">
+      <c r="D128" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
-      <c r="A128" t="s">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A129" t="s">
         <v>316</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C129" t="s">
         <v>317</v>
       </c>
-      <c r="D128" s="1" t="s">
+      <c r="D129" s="1" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
-      <c r="A129" t="s">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A130" t="s">
         <v>319</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C130" t="s">
         <v>320</v>
       </c>
-      <c r="D129" s="1" t="s">
+      <c r="D130" s="1" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
-      <c r="A130" t="s">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A131" t="s">
         <v>322</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C131" t="s">
         <v>323</v>
       </c>
-      <c r="D130" s="1" t="s">
+      <c r="D131" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
-      <c r="A131" t="s">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A132" t="s">
         <v>324</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C132" t="s">
         <v>325</v>
       </c>
-      <c r="D131" s="1" t="s">
+      <c r="D132" s="1" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
-      <c r="A132" t="s">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A133" t="s">
         <v>327</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C133" t="s">
         <v>328</v>
       </c>
-      <c r="D132" s="1" t="s">
+      <c r="D133" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
-      <c r="A133" t="s">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A134" t="s">
         <v>330</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C134" t="s">
         <v>331</v>
       </c>
-      <c r="D133" s="1" t="s">
+      <c r="D134" s="1" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
-      <c r="A134" t="s">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A135" t="s">
         <v>333</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C135" t="s">
         <v>334</v>
       </c>
-      <c r="D134" s="1" t="s">
+      <c r="D135" s="1" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
-      <c r="A135" t="s">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A136" t="s">
         <v>336</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C136" t="s">
         <v>337</v>
       </c>
-      <c r="D135" s="1" t="s">
+      <c r="D136" s="1" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
-      <c r="A136" t="s">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A137" t="s">
         <v>339</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C137" t="s">
         <v>340</v>
       </c>
-      <c r="D136" s="1" t="s">
+      <c r="D137" s="1" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="137" ht="16" customHeight="1" spans="1:4">
-      <c r="A137" t="s">
+    <row r="138" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A138" t="s">
         <v>342</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C138" t="s">
         <v>343</v>
       </c>
-      <c r="D137" s="1" t="s">
+      <c r="D138" s="1" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
-      <c r="A138" t="s">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A139" t="s">
         <v>345</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C139" t="s">
         <v>346</v>
       </c>
-      <c r="D138" s="1" t="s">
+      <c r="D139" s="1" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
-      <c r="A139" t="s">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A140" t="s">
         <v>347</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C140" t="s">
         <v>348</v>
       </c>
-      <c r="D139" s="1" t="s">
+      <c r="D140" s="1" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
-      <c r="A140" t="s">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A141" t="s">
         <v>350</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C141" t="s">
         <v>351</v>
       </c>
-      <c r="D140" s="1" t="s">
+      <c r="D141" s="1" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
-      <c r="A141" t="s">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A142" t="s">
         <v>353</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C142" t="s">
         <v>354</v>
       </c>
-      <c r="D141" s="1" t="s">
+      <c r="D142" s="1" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
-      <c r="A142" t="s">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A143" t="s">
         <v>356</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C143" t="s">
         <v>357</v>
       </c>
-      <c r="D142" s="1" t="s">
+      <c r="D143" s="1" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
-      <c r="A143" t="s">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A144" t="s">
         <v>359</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C144" t="s">
         <v>360</v>
       </c>
-      <c r="D143" s="1" t="s">
+      <c r="D144" s="1" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
-      <c r="A144" t="s">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A145" t="s">
         <v>326</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C145" t="s">
         <v>361</v>
       </c>
-      <c r="D144" s="1" t="s">
+      <c r="D145" s="1" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
-      <c r="A145" t="s">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A146" t="s">
         <v>362</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C146" t="s">
         <v>363</v>
       </c>
-      <c r="D145" s="1" t="s">
+      <c r="D146" s="1" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
-      <c r="A146" t="s">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A147" t="s">
         <v>365</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C147" t="s">
         <v>366</v>
       </c>
-      <c r="D146" s="1" t="s">
+      <c r="D147" s="1" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
-      <c r="A147" t="s">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A148" t="s">
         <v>368</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C148" t="s">
         <v>369</v>
       </c>
-      <c r="D147" s="1" t="s">
+      <c r="D148" s="1" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
-      <c r="A148" t="s">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A149" t="s">
         <v>371</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C149" t="s">
         <v>372</v>
       </c>
-      <c r="D148" s="1" t="s">
+      <c r="D149" s="1" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
-      <c r="A149" t="s">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A150" t="s">
         <v>374</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C150" t="s">
         <v>375</v>
       </c>
-      <c r="D149" s="1" t="s">
+      <c r="D150" s="1" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
-      <c r="A150" t="s">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A151" t="s">
         <v>376</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C151" t="s">
         <v>377</v>
       </c>
-      <c r="D150" s="1" t="s">
+      <c r="D151" s="1" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
-      <c r="A151" t="s">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A152" t="s">
         <v>378</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C152" t="s">
         <v>375</v>
       </c>
-      <c r="D151" s="1" t="s">
+      <c r="D152" s="1" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
-      <c r="A152" t="s">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A153" t="s">
         <v>379</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C153" t="s">
         <v>377</v>
       </c>
-      <c r="D152" s="1" t="s">
+      <c r="D153" s="1" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
-      <c r="A153" t="s">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A154" t="s">
         <v>380</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C154" t="s">
         <v>381</v>
       </c>
-      <c r="D153" s="1" t="s">
+      <c r="D154" s="1" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
-      <c r="A154" t="s">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A155" t="s">
         <v>383</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C155" t="s">
         <v>384</v>
       </c>
-      <c r="D154" s="1" t="s">
+      <c r="D155" s="1" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
-      <c r="A155" t="s">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A156" t="s">
         <v>386</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C156" t="s">
         <v>387</v>
       </c>
-      <c r="D155" s="1" t="s">
+      <c r="D156" s="1" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
-      <c r="A156" t="s">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A157" t="s">
         <v>389</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C157" t="s">
         <v>390</v>
       </c>
-      <c r="D156" s="1" t="s">
+      <c r="D157" s="1" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
-      <c r="A157" t="s">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A158" t="s">
         <v>392</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C158" t="s">
         <v>393</v>
       </c>
-      <c r="D157" s="1" t="s">
+      <c r="D158" s="1" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
-      <c r="A158" t="s">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A159" t="s">
         <v>395</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C159" t="s">
         <v>396</v>
       </c>
-      <c r="D158" s="1" t="s">
+      <c r="D159" s="1" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
-      <c r="A159" t="s">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A160" t="s">
         <v>398</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C160" t="s">
         <v>399</v>
       </c>
-      <c r="D159" s="1" t="s">
+      <c r="D160" s="1" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
-      <c r="A160" t="s">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A161" t="s">
         <v>26</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C161" t="s">
         <v>25</v>
       </c>
-      <c r="D160" s="1" t="s">
+      <c r="D161" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
-      <c r="A161" t="s">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A162" t="s">
         <v>401</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C162" t="s">
         <v>402</v>
       </c>
-      <c r="D161" s="1" t="s">
+      <c r="D162" s="1" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
-      <c r="A162" t="s">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A163" t="s">
         <v>403</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C163" t="s">
         <v>404</v>
       </c>
-      <c r="D162" s="1" t="s">
+      <c r="D163" s="1" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
-      <c r="A163" t="s">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A164" t="s">
         <v>406</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C164" t="s">
         <v>407</v>
       </c>
-      <c r="D163" s="1" t="s">
+      <c r="D164" s="1" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
-      <c r="A164" t="s">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A165" t="s">
         <v>409</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C165" t="s">
         <v>410</v>
       </c>
-      <c r="D164" s="1" t="s">
+      <c r="D165" s="1" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
-      <c r="A165" t="s">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A166" t="s">
         <v>412</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C166" t="s">
         <v>375</v>
       </c>
-      <c r="D165" s="1" t="s">
+      <c r="D166" s="1" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
-      <c r="A166" t="s">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A167" t="s">
         <v>413</v>
       </c>
-      <c r="C166" t="s">
+      <c r="C167" t="s">
         <v>377</v>
       </c>
-      <c r="D166" s="1" t="s">
+      <c r="D167" s="1" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
-      <c r="A167" t="s">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A168" t="s">
         <v>415</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C168" t="s">
         <v>416</v>
       </c>
-      <c r="D167" s="1" t="s">
+      <c r="D168" s="1" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
-      <c r="A168" t="s">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A169" t="s">
         <v>417</v>
       </c>
-      <c r="C168" t="s">
+      <c r="C169" t="s">
         <v>418</v>
       </c>
-      <c r="D168" s="1" t="s">
+      <c r="D169" s="1" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
-      <c r="A169" t="s">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A170" t="s">
         <v>420</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C170" t="s">
         <v>421</v>
       </c>
-      <c r="D169" s="1" t="s">
+      <c r="D170" s="1" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
-      <c r="A170" t="s">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A171" t="s">
         <v>423</v>
       </c>
-      <c r="C170" t="s">
+      <c r="C171" t="s">
         <v>424</v>
       </c>
-      <c r="D170" s="1" t="s">
+      <c r="D171" s="1" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
-      <c r="A171" t="s">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A172" t="s">
         <v>425</v>
       </c>
-      <c r="C171" t="s">
+      <c r="C172" t="s">
         <v>426</v>
       </c>
-      <c r="D171" s="1" t="s">
+      <c r="D172" s="1" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
-      <c r="A172" t="s">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A173" t="s">
         <v>428</v>
       </c>
-      <c r="C172" t="s">
+      <c r="C173" t="s">
         <v>429</v>
       </c>
-      <c r="D172" s="1" t="s">
+      <c r="D173" s="1" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
-      <c r="A173" t="s">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A174" t="s">
         <v>431</v>
       </c>
-      <c r="C173" t="s">
+      <c r="C174" t="s">
         <v>432</v>
       </c>
-      <c r="D173" s="1" t="s">
+      <c r="D174" s="1" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
-      <c r="A174" t="s">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A175" t="s">
         <v>433</v>
       </c>
-      <c r="C174" t="s">
+      <c r="C175" t="s">
         <v>434</v>
       </c>
-      <c r="D174" s="1" t="s">
+      <c r="D175" s="1" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
-      <c r="A175" t="s">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A176" t="s">
         <v>436</v>
       </c>
-      <c r="C175" t="s">
+      <c r="C176" t="s">
         <v>437</v>
       </c>
-      <c r="D175" s="1" t="s">
+      <c r="D176" s="1" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
-      <c r="A176" t="s">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A177" t="s">
         <v>439</v>
       </c>
-      <c r="C176" t="s">
+      <c r="C177" t="s">
         <v>440</v>
       </c>
-      <c r="D176" s="1" t="s">
+      <c r="D177" s="1" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
-      <c r="A177" t="s">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A178" t="s">
         <v>442</v>
       </c>
-      <c r="C177" t="s">
+      <c r="C178" t="s">
         <v>443</v>
       </c>
-      <c r="D177" s="1" t="s">
+      <c r="D178" s="1" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
-      <c r="A178" t="s">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A179" t="s">
         <v>445</v>
       </c>
-      <c r="C178" t="s">
+      <c r="C179" t="s">
         <v>446</v>
       </c>
-      <c r="D178" s="1" t="s">
+      <c r="D179" s="1" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
-      <c r="A179" t="s">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A180" t="s">
         <v>447</v>
       </c>
-      <c r="C179" t="s">
+      <c r="C180" t="s">
         <v>448</v>
       </c>
-      <c r="D179" s="1" t="s">
+      <c r="D180" s="1" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
-      <c r="A180" t="s">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A181" t="s">
         <v>449</v>
       </c>
-      <c r="C180" t="s">
+      <c r="C181" t="s">
         <v>450</v>
       </c>
-      <c r="D180" s="1" t="s">
+      <c r="D181" s="1" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
-      <c r="A181" t="s">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A182" t="s">
         <v>452</v>
       </c>
-      <c r="C181" t="s">
+      <c r="C182" t="s">
         <v>453</v>
       </c>
-      <c r="D181" s="1" t="s">
+      <c r="D182" s="1" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
-      <c r="A182" t="s">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A183" t="s">
         <v>455</v>
       </c>
-      <c r="C182" t="s">
+      <c r="C183" t="s">
         <v>456</v>
       </c>
-      <c r="D182" s="1" t="s">
+      <c r="D183" s="1" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
-      <c r="A183" t="s">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A184" t="s">
         <v>458</v>
       </c>
-      <c r="C183" t="s">
+      <c r="C184" t="s">
         <v>459</v>
       </c>
-      <c r="D183" s="1" t="s">
+      <c r="D184" s="1" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
-      <c r="A184" t="s">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A185" t="s">
         <v>461</v>
       </c>
-      <c r="C184" t="s">
+      <c r="C185" t="s">
         <v>462</v>
       </c>
-      <c r="D184" s="1" t="s">
+      <c r="D185" s="1" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
-      <c r="A185" t="s">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A186" t="s">
         <v>464</v>
       </c>
-      <c r="C185" t="s">
+      <c r="C186" t="s">
         <v>465</v>
       </c>
-      <c r="D185" s="1" t="s">
+      <c r="D186" s="1" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
-      <c r="A186" t="s">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A187" t="s">
         <v>466</v>
       </c>
-      <c r="C186" t="s">
+      <c r="C187" t="s">
         <v>284</v>
       </c>
-      <c r="D186" s="1" t="s">
+      <c r="D187" s="1" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
-      <c r="A187" s="1" t="s">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A188" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="C187" t="s">
+      <c r="C188" t="s">
         <v>287</v>
       </c>
-      <c r="D187" s="1" t="s">
+      <c r="D188" s="1" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
-      <c r="A188" s="1" t="s">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A189" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="C188" t="s">
+      <c r="C189" t="s">
         <v>471</v>
       </c>
-      <c r="D188" s="1" t="s">
+      <c r="D189" s="1" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
-      <c r="A189" s="1" t="s">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A190" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="C189" t="s">
+      <c r="C190" t="s">
         <v>474</v>
       </c>
-      <c r="D189" s="1" t="s">
+      <c r="D190" s="1" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
-      <c r="A190" s="1" t="s">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A191" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="C190" t="s">
+      <c r="C191" t="s">
         <v>477</v>
       </c>
-      <c r="D190" s="1" t="s">
+      <c r="D191" s="1" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
-      <c r="A191" s="1" t="s">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A192" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="C191" t="s">
+      <c r="C192" t="s">
+        <v>480</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A193" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C193" t="s">
         <v>384</v>
       </c>
-      <c r="D191" s="1" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4">
-      <c r="A192" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="C192" t="s">
+      <c r="D193" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A194" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="C194" t="s">
         <v>393</v>
       </c>
-      <c r="D192" s="1" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4">
-      <c r="A193" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="C193" t="s">
-        <v>484</v>
-      </c>
-      <c r="D193" s="1" t="s">
+      <c r="D194" s="1" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
-      <c r="A194" s="1" t="s">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A195" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="C194" t="s">
+      <c r="C195" t="s">
+        <v>487</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A196" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="C196" t="s">
         <v>448</v>
       </c>
-      <c r="D194" s="1" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4">
-      <c r="A195" t="s">
-        <v>488</v>
-      </c>
-      <c r="C195" t="s">
-        <v>489</v>
-      </c>
-      <c r="D195" s="1" t="s">
+      <c r="D196" s="1" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
-      <c r="A196" t="s">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A197" t="s">
         <v>491</v>
-      </c>
-      <c r="C196" t="s">
-        <v>492</v>
-      </c>
-      <c r="D196" s="1" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4">
-      <c r="A197" t="s">
-        <v>494</v>
       </c>
       <c r="C197" t="s">
         <v>492</v>
@@ -4867,131 +4420,241 @@
         <v>493</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
+        <v>494</v>
+      </c>
+      <c r="C198" t="s">
         <v>495</v>
       </c>
-      <c r="C198" t="s">
+      <c r="D198" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="D198" s="1" t="s">
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A199" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="199" spans="1:4">
-      <c r="A199" t="s">
+      <c r="C199" t="s">
+        <v>495</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A200" t="s">
         <v>498</v>
       </c>
-      <c r="C199" t="s">
+      <c r="C200" t="s">
         <v>499</v>
       </c>
-      <c r="D199" s="1" t="s">
+      <c r="D200" s="1" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
-      <c r="A200" t="s">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A201" t="s">
         <v>501</v>
       </c>
-      <c r="C200" t="s">
+      <c r="C201" t="s">
         <v>502</v>
-      </c>
-      <c r="D200" s="1" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4">
-      <c r="A201" t="s">
-        <v>503</v>
-      </c>
-      <c r="C201" t="s">
-        <v>504</v>
       </c>
       <c r="D201" s="1" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A202" t="s">
+        <v>504</v>
+      </c>
+      <c r="C202" t="s">
         <v>505</v>
       </c>
-      <c r="C202" t="s">
+      <c r="D202" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A203" t="s">
         <v>506</v>
       </c>
-      <c r="D202" s="1" t="s">
+      <c r="C203" t="s">
+        <v>507</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A204" t="s">
+        <v>508</v>
+      </c>
+      <c r="C204" t="s">
+        <v>509</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A205" t="s">
+        <v>510</v>
+      </c>
+      <c r="C205" t="s">
+        <v>511</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A206" t="s">
+        <v>513</v>
+      </c>
+      <c r="C206" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="203" spans="1:4">
-      <c r="A203" t="s">
+      <c r="D206" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A207" t="s">
+        <v>514</v>
+      </c>
+      <c r="C207" t="s">
         <v>507</v>
       </c>
-      <c r="C203" t="s">
-        <v>508</v>
-      </c>
-      <c r="D203" s="1" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4">
-      <c r="A204" t="s">
-        <v>510</v>
-      </c>
-      <c r="C204" t="s">
-        <v>502</v>
-      </c>
-      <c r="D204" s="1" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4">
-      <c r="A205" t="s">
-        <v>511</v>
-      </c>
-      <c r="C205" t="s">
-        <v>504</v>
-      </c>
-      <c r="D205" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4">
-      <c r="A206" t="s">
-        <v>512</v>
-      </c>
-      <c r="C206" t="s">
-        <v>513</v>
-      </c>
-      <c r="D206" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4">
-      <c r="A207" t="s">
+      <c r="D207" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A208" t="s">
         <v>515</v>
       </c>
-      <c r="C207" t="s">
+      <c r="C208" t="s">
         <v>516</v>
       </c>
-      <c r="D207" s="1" t="s">
+      <c r="D208" s="1" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
-      <c r="A208" t="s">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A209" t="s">
         <v>518</v>
       </c>
-      <c r="C208" t="s">
+      <c r="C209" t="s">
+        <v>519</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A210" t="s">
+        <v>521</v>
+      </c>
+      <c r="C210" t="s">
         <v>387</v>
       </c>
-      <c r="D208" s="1" t="s">
+      <c r="D210" s="1" t="s">
         <v>388</v>
       </c>
     </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A211" t="s">
+        <v>522</v>
+      </c>
+      <c r="C211" t="s">
+        <v>523</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A212" t="s">
+        <v>524</v>
+      </c>
+      <c r="C212" t="s">
+        <v>525</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A213" t="s">
+        <v>527</v>
+      </c>
+      <c r="C213" t="s">
+        <v>528</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A214" t="s">
+        <v>530</v>
+      </c>
+      <c r="C214" t="s">
+        <v>531</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A215" t="s">
+        <v>532</v>
+      </c>
+      <c r="C215" t="s">
+        <v>533</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A216" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="C216" t="s">
+        <v>375</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A217" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="C217" t="s">
+        <v>377</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A218" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="C218" t="s">
+        <v>539</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>